--- a/docs/paper_experiment/preservation/preservation_5000.xlsx
+++ b/docs/paper_experiment/preservation/preservation_5000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mituba/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/preservation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64806059-81CF-C046-85FA-4C7B54840E04}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25F0EC8-4413-414C-9492-41D3578D9A55}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23080" yWindow="-21080" windowWidth="30680" windowHeight="15000" activeTab="10" xr2:uid="{96CA64AA-3570-0A4C-8787-A8C7ED1A9898}"/>
+    <workbookView xWindow="32580" yWindow="-15820" windowWidth="30680" windowHeight="15000" activeTab="4" xr2:uid="{96CA64AA-3570-0A4C-8787-A8C7ED1A9898}"/>
   </bookViews>
   <sheets>
     <sheet name="DNR" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,6 @@
     <sheet name="MLI_edit" sheetId="10" r:id="rId10"/>
     <sheet name="BM25 vs edit" sheetId="11" r:id="rId11"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.5" hidden="1">'BM25 vs edit'!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'BM25 vs edit'!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'BM25 vs edit'!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'BM25 vs edit'!$D$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'BM25 vs edit'!$D$2:$D$11</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'BM25 vs edit'!$L$15:$L$24</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'BM25 vs edit'!$M$14</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'BM25 vs edit'!$M$15:$M$24</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'BM25 vs edit'!$N$14</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'BM25 vs edit'!$N$15:$N$24</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -275,34 +263,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.54013015184381774</c:v>
+                  <c:v>0.34042553191489361</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6095444685466378</c:v>
+                  <c:v>0.41755319148936171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.48936170212765956</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.56382978723404253</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.65159574468085102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.75797872340425532</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.8457446808510638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.92021276595744683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.98404255319148937</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -625,34 +613,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99204244031830235</c:v>
+                  <c:v>0.99733333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,34 +720,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99463806970509383</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,34 +1035,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,25 +1310,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,34 +1585,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1872,25 +1860,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.99204244031830235</c:v>
+                  <c:v>0.99733333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99469496021220161</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2214,34 +2202,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.54013015184381774</c:v>
+                  <c:v>0.34042553191489361</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6095444685466378</c:v>
+                  <c:v>0.41755319148936171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.48936170212765956</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.56382978723404253</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.65159574468085102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.75797872340425532</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.8457446808510638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.92021276595744683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>0.98404255319148937</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6290672451193059</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2321,34 +2309,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.77878103837471779</c:v>
+                  <c:v>0.91755319148936165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84875846501128671</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84875846501128671</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84875846501128671</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84875846501128671</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.84875846501128671</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84875846501128671</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84875846501128671</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84875846501128671</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84875846501128671</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,34 +2690,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2809,34 +2797,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99731903485254692</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3191,34 +3179,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99470899470899465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3298,34 +3286,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99732620320855614</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99732620320855614</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99732620320855614</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99732620320855614</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99732620320855614</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99732620320855614</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99732620320855614</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99732620320855614</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99732620320855614</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99732620320855614</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3679,34 +3667,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99734748010610075</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3786,34 +3774,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99733333333333329</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99733333333333329</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99733333333333329</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99733333333333329</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99733333333333329</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99733333333333329</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99733333333333329</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99733333333333329</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99733333333333329</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99733333333333329</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9456,16 +9444,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>882650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10152,14 +10140,14 @@
         <v>2</v>
       </c>
       <c r="B1">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1">
-        <f>B1/$B$12</f>
-        <v>0.54013015184381774</v>
+        <f>B1/$B$11</f>
+        <v>0.34042553191489361</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10167,14 +10155,14 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>281</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E13" si="0">B2/$B$12</f>
-        <v>0.6095444685466378</v>
+        <f t="shared" ref="E2:E13" si="0">B2/$B$11</f>
+        <v>0.41755319148936171</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10182,14 +10170,14 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>290</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0.6290672451193059</v>
+        <v>0.48936170212765956</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10197,14 +10185,14 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.6290672451193059</v>
+        <v>0.56382978723404253</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10212,14 +10200,14 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.6290672451193059</v>
+        <v>0.65159574468085102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10227,14 +10215,14 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.6290672451193059</v>
+        <v>0.75797872340425532</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10242,14 +10230,14 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.6290672451193059</v>
+        <v>0.8457446808510638</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10257,14 +10245,14 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.6290672451193059</v>
+        <v>0.92021276595744683</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10272,14 +10260,14 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.6290672451193059</v>
+        <v>0.98404255319148937</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10287,14 +10275,14 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.6290672451193059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10302,14 +10290,14 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.6290672451193059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10324,7 +10312,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.2260638297872339</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10332,14 +10320,14 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.6290672451193059</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10354,7 +10342,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10370,8 +10358,8 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <f>B1/$B$12</f>
-        <v>0.99463806970509383</v>
+        <f>B1/$B$11</f>
+        <v>0.99731182795698925</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10385,8 +10373,8 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E13" si="0">B2/$B$12</f>
-        <v>0.99731903485254692</v>
+        <f t="shared" ref="E2:E11" si="0">B2/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10401,7 +10389,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10416,7 +10404,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10431,7 +10419,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10446,7 +10434,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10461,7 +10449,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10476,7 +10464,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10491,7 +10479,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10506,7 +10494,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10521,7 +10509,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10535,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:E13" si="1">B12/$B$12</f>
         <v>1</v>
       </c>
     </row>
@@ -10550,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99731903485254692</v>
       </c>
     </row>
@@ -10564,8 +10552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552181E6-AB53-DA4A-9C16-74B1CAE6EBA2}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10595,19 +10583,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>0.54013015184381774</v>
+        <v>0.34042553191489361</v>
       </c>
       <c r="D2" s="1">
-        <v>0.77878103837471779</v>
+        <v>0.91755319148936165</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -10615,19 +10603,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>0.6095444685466378</v>
+        <v>0.41755319148936171</v>
       </c>
       <c r="D3" s="1">
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -10635,19 +10623,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.6290672451193059</v>
+        <v>0.48936170212765956</v>
       </c>
       <c r="D4" s="1">
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -10655,19 +10643,19 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>0.6290672451193059</v>
+        <v>0.56382978723404253</v>
       </c>
       <c r="D5" s="1">
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -10675,19 +10663,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>0.6290672451193059</v>
+        <v>0.65159574468085102</v>
       </c>
       <c r="D6" s="1">
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -10695,19 +10683,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>0.6290672451193059</v>
+        <v>0.75797872340425532</v>
       </c>
       <c r="D7" s="1">
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -10715,19 +10703,19 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>0.6290672451193059</v>
+        <v>0.8457446808510638</v>
       </c>
       <c r="D8" s="1">
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -10735,19 +10723,19 @@
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>0.6290672451193059</v>
+        <v>0.92021276595744683</v>
       </c>
       <c r="D9" s="1">
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -10755,19 +10743,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>0.6290672451193059</v>
+        <v>0.98404255319148937</v>
       </c>
       <c r="D10" s="1">
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -10775,19 +10763,19 @@
         <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>0.6290672451193059</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -10824,28 +10812,28 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>2</v>
       </c>
       <c r="M15" s="1">
-        <v>0.99204244031830235</v>
+        <v>0.99733333333333329</v>
       </c>
       <c r="N15" s="1">
-        <v>0.99463806970509383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -10853,28 +10841,28 @@
         <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
       </c>
       <c r="M16" s="1">
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -10882,28 +10870,28 @@
         <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>4</v>
       </c>
       <c r="H17" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
         <v>4</v>
       </c>
       <c r="M17" s="1">
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -10911,28 +10899,28 @@
         <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
       <c r="L18" t="s">
         <v>5</v>
       </c>
       <c r="M18" s="1">
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:14">
@@ -10940,28 +10928,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
       <c r="L19" t="s">
         <v>6</v>
       </c>
       <c r="M19" s="1">
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
       <c r="N19" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -10969,28 +10957,28 @@
         <v>7</v>
       </c>
       <c r="C20" s="1">
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
         <v>7</v>
       </c>
       <c r="M20" s="1">
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
       <c r="N20" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -10998,28 +10986,28 @@
         <v>8</v>
       </c>
       <c r="C21" s="1">
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
       <c r="L21" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="1">
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:14">
@@ -11027,28 +11015,28 @@
         <v>9</v>
       </c>
       <c r="C22" s="1">
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
         <v>9</v>
       </c>
       <c r="M22" s="1">
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
       <c r="N22" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:14">
@@ -11056,28 +11044,28 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
         <v>10</v>
       </c>
       <c r="M23" s="1">
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
       <c r="N23" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:14">
@@ -11085,28 +11073,28 @@
         <v>11</v>
       </c>
       <c r="C24" s="1">
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="1">
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1">
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>11</v>
       </c>
       <c r="M24" s="1">
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1">
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11121,7 +11109,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E10"/>
+      <selection activeCell="E1" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11140,8 +11128,8 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <f>B1/$B$12</f>
-        <v>0.99734748010610075</v>
+        <f>B1/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11155,8 +11143,8 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E13" si="0">B2/$B$12</f>
-        <v>0.99734748010610075</v>
+        <f t="shared" ref="E2:E11" si="0">B2/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11171,7 +11159,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11186,7 +11174,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11201,7 +11189,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11216,7 +11204,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11231,7 +11219,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11246,7 +11234,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11261,7 +11249,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11276,7 +11264,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11291,7 +11279,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11305,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:E13" si="1">B12/$B$12</f>
         <v>1</v>
       </c>
     </row>
@@ -11320,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99734748010610075</v>
       </c>
     </row>
@@ -11336,7 +11324,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E10"/>
+      <selection activeCell="E1" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11352,8 +11340,8 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <f>B1/$B$12</f>
-        <v>0.99470899470899465</v>
+        <f>B1/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11367,8 +11355,8 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E13" si="0">B2/$B$12</f>
-        <v>0.99470899470899465</v>
+        <f t="shared" ref="E2:E11" si="0">B2/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11383,7 +11371,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11398,7 +11386,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11413,7 +11401,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11428,7 +11416,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11443,7 +11431,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11458,7 +11446,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11473,7 +11461,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11488,7 +11476,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11503,7 +11491,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.99470899470899465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11517,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:E13" si="1">B12/$B$12</f>
         <v>1</v>
       </c>
     </row>
@@ -11532,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99470899470899465</v>
       </c>
     </row>
@@ -11548,7 +11536,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11564,8 +11552,8 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <f>B1/$B$12</f>
-        <v>0.99734748010610075</v>
+        <f>B1/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11579,8 +11567,8 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E13" si="0">B2/$B$12</f>
-        <v>0.99734748010610075</v>
+        <f t="shared" ref="E2:E11" si="0">B2/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11595,7 +11583,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11610,7 +11598,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11625,7 +11613,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11640,7 +11628,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11655,7 +11643,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11670,7 +11658,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11685,7 +11673,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11700,7 +11688,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11715,7 +11703,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.99734748010610075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11729,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:E13" si="1">B12/$B$12</f>
         <v>1</v>
       </c>
     </row>
@@ -11744,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99734748010610075</v>
       </c>
     </row>
@@ -11759,8 +11747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D3AE07-8860-0F40-AE1F-BC46754F508E}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11776,8 +11764,8 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <f>B1/$B$12</f>
-        <v>0.99204244031830235</v>
+        <f>B1/$B$11</f>
+        <v>0.99733333333333329</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11791,8 +11779,8 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E13" si="0">B2/$B$12</f>
-        <v>0.99469496021220161</v>
+        <f t="shared" ref="E2:E11" si="0">B2/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11807,7 +11795,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11822,7 +11810,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11837,7 +11825,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11852,7 +11840,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11867,7 +11855,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11882,7 +11870,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11897,7 +11885,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11912,7 +11900,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11927,7 +11915,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.99469496021220161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11941,7 +11929,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:E13" si="1">B12/$B$12</f>
         <v>1</v>
       </c>
     </row>
@@ -11956,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99469496021220161</v>
       </c>
     </row>
@@ -11969,7 +11957,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A36192C-E819-3640-9813-BC5C2C723616}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E10"/>
@@ -11988,8 +11976,8 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <f>B1/$B$12</f>
-        <v>0.77878103837471779</v>
+        <f>B1/$B$11</f>
+        <v>0.91755319148936165</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12003,8 +11991,8 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E13" si="0">B2/$B$12</f>
-        <v>0.84875846501128671</v>
+        <f t="shared" ref="E2:E11" si="0">B2/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12019,7 +12007,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12034,7 +12022,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12049,7 +12037,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12064,7 +12052,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12079,7 +12067,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12094,7 +12082,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12109,7 +12097,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12124,7 +12112,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12139,7 +12127,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.84875846501128671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -12153,7 +12141,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:E13" si="1">B12/$B$12</f>
         <v>1</v>
       </c>
     </row>
@@ -12168,8 +12156,14 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84875846501128671</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17">
+        <f>B12-B11</f>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -12183,7 +12177,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E10"/>
+      <selection activeCell="E1" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -12199,8 +12193,8 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <f>B1/$B$12</f>
-        <v>0.99731903485254692</v>
+        <f>B1/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12214,8 +12208,8 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E13" si="0">B2/$B$12</f>
-        <v>0.99731903485254692</v>
+        <f t="shared" ref="E2:E11" si="0">B2/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12230,7 +12224,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12245,7 +12239,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12260,7 +12254,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12275,7 +12269,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12290,7 +12284,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12305,7 +12299,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12320,7 +12314,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12335,7 +12329,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12350,7 +12344,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.99731903485254692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -12364,7 +12358,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:E13" si="1">B12/$B$12</f>
         <v>1</v>
       </c>
     </row>
@@ -12379,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99731903485254692</v>
       </c>
     </row>
@@ -12394,7 +12388,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -12410,8 +12404,8 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <f>B1/$B$12</f>
-        <v>0.99732620320855614</v>
+        <f>B1/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12425,8 +12419,8 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E13" si="0">B2/$B$12</f>
-        <v>0.99732620320855614</v>
+        <f t="shared" ref="E2:E11" si="0">B2/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12441,7 +12435,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12456,7 +12450,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12471,7 +12465,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12486,7 +12480,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12501,7 +12495,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12516,7 +12510,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12531,7 +12525,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12546,7 +12540,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12561,7 +12555,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.99732620320855614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -12575,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:E13" si="1">B12/$B$12</f>
         <v>1</v>
       </c>
     </row>
@@ -12590,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99732620320855614</v>
       </c>
     </row>
@@ -12605,7 +12599,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E1:E10"/>
+      <selection activeCell="E1" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -12621,8 +12615,8 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <f>B1/$B$12</f>
-        <v>0.99733333333333329</v>
+        <f>B1/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12636,8 +12630,8 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E13" si="0">B2/$B$12</f>
-        <v>0.99733333333333329</v>
+        <f t="shared" ref="E2:E11" si="0">B2/$B$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12652,7 +12646,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12667,7 +12661,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12682,7 +12676,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12697,7 +12691,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12712,7 +12706,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12727,7 +12721,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12742,7 +12736,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12757,7 +12751,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12772,7 +12766,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.99733333333333329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -12786,7 +12780,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:E13" si="1">B12/$B$12</f>
         <v>1</v>
       </c>
     </row>
@@ -12801,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99733333333333329</v>
       </c>
     </row>
